--- a/mbs-EP-v.1.0.2/Excel Files/crank_slider/crank_slider_gravity.xlsx
+++ b/mbs-EP-v.1.0.2/Excel Files/crank_slider/crank_slider_gravity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.0\Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.2\Excel Files\crank_slider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D614359-9D50-4CC7-88BD-9CFEE740C605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2973AD0-4757-4474-835D-C8852570D782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12450" yWindow="3045" windowWidth="21600" windowHeight="11385" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="255">
   <si>
     <t>Mass</t>
   </si>
@@ -206,18 +206,12 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Function</t>
-  </si>
-  <si>
     <t>Direction</t>
   </si>
   <si>
     <t>Vector Direction/Rotational Axis</t>
   </si>
   <si>
-    <t>Function Type (Sinusoidal or Polynomial)</t>
-  </si>
-  <si>
     <t>wx</t>
   </si>
   <si>
@@ -290,9 +284,6 @@
     <t>Force Point of Application (Abs Frame)</t>
   </si>
   <si>
-    <t>sj</t>
-  </si>
-  <si>
     <t>Torsional Spring - Vectors si and sj are used to measure the angle of the torsion spring</t>
   </si>
   <si>
@@ -308,9 +299,6 @@
     <t>Gravity Magnitude</t>
   </si>
   <si>
-    <t>Spring Axis</t>
-  </si>
-  <si>
     <t>Dyn</t>
   </si>
   <si>
@@ -410,9 +398,6 @@
     <t>Linear - Damping Coefficient</t>
   </si>
   <si>
-    <t>@(x) Non Linear Force Function (x-Displ)</t>
-  </si>
-  <si>
     <t>Function 1</t>
   </si>
   <si>
@@ -420,9 +405,6 @@
   </si>
   <si>
     <t>Function 3</t>
-  </si>
-  <si>
-    <t>@(dx) Non Linear Force Function (dx-Vel)</t>
   </si>
   <si>
     <t>Numb of Functions</t>
@@ -578,9 +560,6 @@
     <t>spj</t>
   </si>
   <si>
-    <t xml:space="preserve"> @(t) Function</t>
-  </si>
-  <si>
     <t>Force Element</t>
   </si>
   <si>
@@ -838,6 +817,42 @@
   </si>
   <si>
     <t>Important Note</t>
+  </si>
+  <si>
+    <t>Functions written as '@(x) Func(x)</t>
+  </si>
+  <si>
+    <t>Displacement Function</t>
+  </si>
+  <si>
+    <t>Velocity Function</t>
+  </si>
+  <si>
+    <t>Acceleration Function</t>
+  </si>
+  <si>
+    <t>@(x) Non Linear Force Function (x-Displ) [Write as '@(x) func(x)]</t>
+  </si>
+  <si>
+    <t>Null Force Length</t>
+  </si>
+  <si>
+    <t>@(dx) Non Linear Force Function (dx-Vel) [Write as '@(x) func(x)]</t>
+  </si>
+  <si>
+    <t>@(x) Non Linear Force Function (x-Angle of Torsion) [Write as '@(x) func(x)]</t>
+  </si>
+  <si>
+    <t>sp ( Spring Position REV)</t>
+  </si>
+  <si>
+    <t>Spring Axis (s)</t>
+  </si>
+  <si>
+    <t>si (vector to take body i orientation)</t>
+  </si>
+  <si>
+    <t>sj(vector to take body j orientation)</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1177,51 +1192,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1233,9 +1233,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1286,18 +1283,105 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1316,12 +1400,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1331,74 +1409,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1406,7 +1418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1415,7 +1427,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1427,33 +1445,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1487,15 +1478,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1929,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE954C49-6E73-4D49-8054-42AF7A10140C}">
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,901 +1993,889 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95"/>
+      <c r="J2" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="79"/>
+      <c r="D3" s="48">
+        <v>2</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="91"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="90" t="s">
+        <v>135</v>
+      </c>
+      <c r="N3" s="91"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q3" s="42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="79"/>
+      <c r="D4" s="48">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="100"/>
+      <c r="M4" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="N4" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4" s="74"/>
+      <c r="P4" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q4" s="58" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="79"/>
+      <c r="D5" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="J2" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="54">
-        <v>2</v>
-      </c>
-      <c r="E3" s="54" t="s">
+      <c r="J5" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" s="100"/>
+      <c r="M5" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="74"/>
+      <c r="P5" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q5" s="58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="79"/>
+      <c r="D6" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" s="100"/>
+      <c r="M6" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="N6" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="O6" s="74"/>
+      <c r="P6" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q6" s="58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="79"/>
+      <c r="D7" s="48">
+        <v>-9806.65</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="76" t="s">
+      <c r="L7" s="100"/>
+      <c r="M7" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="74"/>
+      <c r="P7" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q7" s="58" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="79"/>
+      <c r="D8" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="L8" s="100"/>
+      <c r="M8" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="74"/>
+      <c r="P8" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q8" s="58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="79"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" s="100"/>
+      <c r="M9" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="74"/>
+      <c r="P9" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q9" s="58" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J10" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="K3" s="77"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="76" t="s">
+      <c r="K10" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="100"/>
+      <c r="M10" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="74"/>
+      <c r="P10" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q10" s="58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J11" s="51"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="N11" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="O11" s="74"/>
+      <c r="P11" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q11" s="58" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="97" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="N3" s="77"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q3" s="48" t="s">
+      <c r="N12" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="O12" s="74"/>
+      <c r="P12" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q12" s="58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="77"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="74"/>
+      <c r="P13" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q13" s="58" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="77"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="N14" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="O14" s="74"/>
+      <c r="P14" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q14" s="58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="77"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="J15" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="91"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="74"/>
+      <c r="P15" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q15" s="58" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="77"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="J16" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="L16" s="100"/>
+      <c r="M16" s="42" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="54">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="E4" s="54" t="s">
+      <c r="N16" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" s="74"/>
+      <c r="P16" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q16" s="58" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="77"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="J17" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="100"/>
+      <c r="M17" s="90" t="s">
+        <v>155</v>
+      </c>
+      <c r="N17" s="91"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q17" s="58" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="76"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="J18" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" s="100"/>
+      <c r="M18" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="N18" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="O18" s="74"/>
+      <c r="P18" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q18" s="58" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="76"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="J19" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" s="48" t="s">
+      <c r="L19" s="100"/>
+      <c r="M19" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="N19" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="O19" s="74"/>
+      <c r="P19" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q19" s="58" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="82"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="80"/>
+      <c r="H20" s="46"/>
+      <c r="J20" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="N4" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="O4" s="91"/>
-      <c r="P4" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q4" s="64" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="54" t="s">
+      <c r="K20" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="L20" s="100"/>
+      <c r="M20" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="N20" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="J5" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="L5" s="79"/>
-      <c r="M5" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="91"/>
-      <c r="P5" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q5" s="64" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="K6" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="L6" s="79"/>
-      <c r="M6" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="N6" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="O6" s="91"/>
-      <c r="P6" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q6" s="64" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="54">
-        <v>-9806.65</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="J7" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="K7" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="79"/>
-      <c r="M7" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="91"/>
-      <c r="P7" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q7" s="64" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="J8" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="K8" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="L8" s="79"/>
-      <c r="M8" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="91"/>
-      <c r="P8" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q8" s="64" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="J9" s="48" t="s">
+      <c r="O20" s="74"/>
+      <c r="P20" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q20" s="58" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="83"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="46"/>
+      <c r="J21" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="K9" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="L9" s="79"/>
-      <c r="M9" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="O9" s="91"/>
-      <c r="P9" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q9" s="64" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J10" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="K10" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="L10" s="79"/>
-      <c r="M10" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="91"/>
-      <c r="P10" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q10" s="64" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J11" s="57"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="N11" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="O11" s="91"/>
-      <c r="P11" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q11" s="64" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="74" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="N12" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="O12" s="91"/>
-      <c r="P12" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q12" s="64" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" s="91"/>
-      <c r="P13" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q13" s="64" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="67" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="N14" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="O14" s="91"/>
-      <c r="P14" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q14" s="64" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="67" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="J15" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="K15" s="77"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="91"/>
-      <c r="P15" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q15" s="64" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="J16" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="K16" s="48" t="s">
+      <c r="L21" s="100"/>
+      <c r="M21" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="N21" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="O21" s="74"/>
+      <c r="P21" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q21" s="58" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="83"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="46"/>
+      <c r="J22" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="L16" s="79"/>
-      <c r="M16" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="N16" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="O16" s="91"/>
-      <c r="P16" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q16" s="64" t="s">
+      <c r="L22" s="101"/>
+      <c r="M22" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="N22" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="O22" s="74"/>
+      <c r="P22" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="58" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="83"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="46"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="47" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="67" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="J17" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="L17" s="79"/>
-      <c r="M17" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="N17" s="77"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q17" s="64" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="92" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="J18" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="K18" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="L18" s="79"/>
-      <c r="M18" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="N18" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="O18" s="91"/>
-      <c r="P18" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q18" s="64" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="92" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="J19" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="79"/>
-      <c r="M19" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="N19" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="O19" s="91"/>
-      <c r="P19" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q19" s="64" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="95" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="96"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="101" t="s">
-        <v>158</v>
-      </c>
-      <c r="F20" s="94" t="s">
-        <v>159</v>
-      </c>
-      <c r="G20" s="94"/>
-      <c r="H20" s="52"/>
-      <c r="J20" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="79"/>
-      <c r="M20" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="N20" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O20" s="91"/>
-      <c r="P20" s="48" t="s">
+      <c r="Q23" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="Q20" s="64" t="s">
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="46"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q24" s="59" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="83"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="46"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q25" s="59" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="83"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="46"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q26" s="59" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="97"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="52"/>
-      <c r="J21" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="K21" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="L21" s="79"/>
-      <c r="M21" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="N21" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="O21" s="91"/>
-      <c r="P21" s="53" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q21" s="64" t="s">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="85"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="46"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q27" s="59" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="97"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="52"/>
-      <c r="J22" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="K22" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="L22" s="80"/>
-      <c r="M22" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="N22" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="O22" s="91"/>
-      <c r="P22" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q22" s="64" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="97"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="52"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q23" s="65" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="97"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="52"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="91"/>
-      <c r="P24" s="32" t="s">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J28" s="67"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q28" s="59" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J29" s="67"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="Q24" s="65" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="97"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="52"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="32" t="s">
+      <c r="Q29" s="59" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q30" s="59" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J31" s="67"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q31" s="59" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J32" s="67"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="Q25" s="65" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="97"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="52"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="91"/>
-      <c r="P26" s="32" t="s">
+      <c r="Q32" s="59" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J33" s="67"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="Q26" s="65" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="99"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="52"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="32" t="s">
+      <c r="Q33" s="59" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J34" s="67"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="Q27" s="65" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J28" s="84"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q28" s="65" t="s">
+      <c r="Q34" s="59" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J35" s="67"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q35" s="59" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J29" s="84"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="91"/>
-      <c r="P29" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q29" s="65" t="s">
+    <row r="36" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J36" s="67"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="30" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="84"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="86"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q30" s="65" t="s">
+      <c r="Q36" s="59" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J37" s="67"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="30" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="84"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="85"/>
-      <c r="N31" s="86"/>
-      <c r="O31" s="91"/>
-      <c r="P31" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q31" s="65" t="s">
+      <c r="Q37" s="59" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J38" s="70"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="30" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="84"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="91"/>
-      <c r="P32" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q32" s="65" t="s">
+      <c r="Q38" s="59" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="P39" s="30" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="84"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="91"/>
-      <c r="P33" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q33" s="65" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="84"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="86"/>
-      <c r="O34" s="91"/>
-      <c r="P34" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q34" s="65" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="84"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="91"/>
-      <c r="P35" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q35" s="65" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="84"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="86"/>
-      <c r="O36" s="91"/>
-      <c r="P36" s="32" t="s">
+      <c r="Q39" s="59" t="s">
         <v>237</v>
-      </c>
-      <c r="Q36" s="65" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="84"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="85"/>
-      <c r="M37" s="85"/>
-      <c r="N37" s="86"/>
-      <c r="O37" s="91"/>
-      <c r="P37" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q37" s="65" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="87"/>
-      <c r="K38" s="88"/>
-      <c r="L38" s="88"/>
-      <c r="M38" s="88"/>
-      <c r="N38" s="89"/>
-      <c r="O38" s="91"/>
-      <c r="P38" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q38" s="65" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="P39" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q39" s="65" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J23:N38"/>
-    <mergeCell ref="O3:O38"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F20:G27"/>
-    <mergeCell ref="B20:C27"/>
-    <mergeCell ref="E20:E27"/>
-    <mergeCell ref="M3:N3"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -2860,6 +2892,18 @@
     <mergeCell ref="L3:L22"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M17:N17"/>
+    <mergeCell ref="J23:N38"/>
+    <mergeCell ref="O3:O38"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F20:G27"/>
+    <mergeCell ref="B20:C27"/>
+    <mergeCell ref="E20:E27"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2891,125 +2935,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="67" t="s">
+      <c r="A1" s="96"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67" t="s">
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67" t="s">
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67" t="s">
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67" t="s">
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="105" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105" t="s">
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="67" t="s">
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67" t="s">
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="94" t="s">
-        <v>94</v>
-      </c>
-      <c r="S2" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="67" t="s">
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="S2" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="67"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="77"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>2</v>
@@ -3056,60 +3100,60 @@
       <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="94"/>
-      <c r="S3" s="104"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="103"/>
       <c r="T3" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="V3" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="W3" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="X3" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="V3" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="W3" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="X3" s="28" t="s">
+      <c r="Y3" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Y3" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z3" s="28" t="s">
+      <c r="Z3" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB3" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="AA3" s="28" t="s">
+      <c r="AC3" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="AB3" s="28" t="s">
+      <c r="AD3" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="AC3" s="28" t="s">
+      <c r="AE3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="28" t="s">
+      <c r="AF3" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="AE3" s="28" t="s">
+      <c r="AG3" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="AF3" s="28" t="s">
+      <c r="AH3" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="AG3" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH3" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI3" s="29" t="s">
+      <c r="AI3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="AJ3" s="29" t="s">
+      <c r="AJ3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AK3" s="29" t="s">
+      <c r="AK3" s="27" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3129,43 +3173,43 @@
       <c r="E4" s="16">
         <v>0</v>
       </c>
-      <c r="F4" s="30">
-        <v>0</v>
-      </c>
-      <c r="G4" s="30">
-        <v>0</v>
-      </c>
-      <c r="H4" s="30">
-        <v>0</v>
-      </c>
-      <c r="I4" s="30">
-        <v>0</v>
-      </c>
-      <c r="J4" s="30">
-        <v>0</v>
-      </c>
-      <c r="K4" s="30">
-        <v>0</v>
-      </c>
-      <c r="L4" s="30">
-        <v>0</v>
-      </c>
-      <c r="M4" s="30">
-        <v>0</v>
-      </c>
-      <c r="N4" s="30">
-        <v>0</v>
-      </c>
-      <c r="O4" s="30">
-        <v>0</v>
-      </c>
-      <c r="P4" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="30">
-        <v>0</v>
-      </c>
-      <c r="R4" s="30">
+      <c r="F4" s="28">
+        <v>0</v>
+      </c>
+      <c r="G4" s="28">
+        <v>0</v>
+      </c>
+      <c r="H4" s="28">
+        <v>0</v>
+      </c>
+      <c r="I4" s="28">
+        <v>0</v>
+      </c>
+      <c r="J4" s="28">
+        <v>0</v>
+      </c>
+      <c r="K4" s="28">
+        <v>0</v>
+      </c>
+      <c r="L4" s="28">
+        <v>0</v>
+      </c>
+      <c r="M4" s="28">
+        <v>0</v>
+      </c>
+      <c r="N4" s="28">
+        <v>0</v>
+      </c>
+      <c r="O4" s="28">
+        <v>0</v>
+      </c>
+      <c r="P4" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="28">
+        <v>0</v>
+      </c>
+      <c r="R4" s="28">
         <v>0</v>
       </c>
       <c r="S4" s="16">
@@ -3180,49 +3224,49 @@
       <c r="V4" s="16">
         <v>0</v>
       </c>
-      <c r="W4" s="30">
-        <v>0</v>
-      </c>
-      <c r="X4" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="33">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="33">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="33">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="33">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="33">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="30">
+      <c r="W4" s="28">
+        <v>0</v>
+      </c>
+      <c r="X4" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="28">
         <v>0</v>
       </c>
     </row>
@@ -3231,7 +3275,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C5" s="17">
         <v>86.6</v>
@@ -3242,43 +3286,43 @@
       <c r="E5" s="23">
         <v>0</v>
       </c>
-      <c r="F5" s="30">
-        <v>0</v>
-      </c>
-      <c r="G5" s="30">
-        <v>0</v>
-      </c>
-      <c r="H5" s="30">
-        <v>0</v>
-      </c>
-      <c r="I5" s="30">
-        <v>0</v>
-      </c>
-      <c r="J5" s="30">
-        <v>0</v>
-      </c>
-      <c r="K5" s="30">
-        <v>0</v>
-      </c>
-      <c r="L5" s="30">
-        <v>0</v>
-      </c>
-      <c r="M5" s="30">
-        <v>0</v>
-      </c>
-      <c r="N5" s="30">
-        <v>0</v>
-      </c>
-      <c r="O5" s="30">
-        <v>0</v>
-      </c>
-      <c r="P5" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="30">
+      <c r="F5" s="28">
+        <v>0</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0</v>
+      </c>
+      <c r="H5" s="28">
+        <v>0</v>
+      </c>
+      <c r="I5" s="28">
+        <v>0</v>
+      </c>
+      <c r="J5" s="28">
+        <v>0</v>
+      </c>
+      <c r="K5" s="28">
+        <v>0</v>
+      </c>
+      <c r="L5" s="28">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28">
+        <v>0</v>
+      </c>
+      <c r="N5" s="28">
+        <v>0</v>
+      </c>
+      <c r="O5" s="28">
+        <v>0</v>
+      </c>
+      <c r="P5" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="28">
         <v>1</v>
       </c>
-      <c r="R5" s="30">
+      <c r="R5" s="28">
         <v>-0.52359999999999995</v>
       </c>
       <c r="S5" s="16">
@@ -3293,49 +3337,49 @@
       <c r="V5" s="16">
         <v>1312.9336000000001</v>
       </c>
-      <c r="W5" s="30">
-        <v>0</v>
-      </c>
-      <c r="X5" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="30">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="33">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="33">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="33">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="33">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="33">
+      <c r="W5" s="28">
+        <v>0</v>
+      </c>
+      <c r="X5" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="31">
         <v>5</v>
       </c>
-      <c r="AI5" s="30">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="30">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="30">
+      <c r="AI5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="28">
         <v>0</v>
       </c>
     </row>
@@ -3344,7 +3388,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C6" s="17">
         <v>418.1</v>
@@ -3355,43 +3399,43 @@
       <c r="E6" s="23">
         <v>0</v>
       </c>
-      <c r="F6" s="30">
-        <v>0</v>
-      </c>
-      <c r="G6" s="30">
-        <v>0</v>
-      </c>
-      <c r="H6" s="30">
-        <v>0</v>
-      </c>
-      <c r="I6" s="30">
-        <v>0</v>
-      </c>
-      <c r="J6" s="30">
-        <v>0</v>
-      </c>
-      <c r="K6" s="30">
-        <v>0</v>
-      </c>
-      <c r="L6" s="30">
-        <v>0</v>
-      </c>
-      <c r="M6" s="30">
-        <v>0</v>
-      </c>
-      <c r="N6" s="30">
-        <v>0</v>
-      </c>
-      <c r="O6" s="30">
-        <v>0</v>
-      </c>
-      <c r="P6" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="30">
+      <c r="F6" s="28">
+        <v>0</v>
+      </c>
+      <c r="G6" s="28">
+        <v>0</v>
+      </c>
+      <c r="H6" s="28">
+        <v>0</v>
+      </c>
+      <c r="I6" s="28">
+        <v>0</v>
+      </c>
+      <c r="J6" s="28">
+        <v>0</v>
+      </c>
+      <c r="K6" s="28">
+        <v>0</v>
+      </c>
+      <c r="L6" s="28">
+        <v>0</v>
+      </c>
+      <c r="M6" s="28">
+        <v>0</v>
+      </c>
+      <c r="N6" s="28">
+        <v>0</v>
+      </c>
+      <c r="O6" s="28">
+        <v>0</v>
+      </c>
+      <c r="P6" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="28">
         <v>1</v>
       </c>
-      <c r="R6" s="30">
+      <c r="R6" s="28">
         <v>0.20100000000000001</v>
       </c>
       <c r="S6" s="16">
@@ -3404,53 +3448,53 @@
         <f>1.27307*10^5</f>
         <v>127306.99999999999</v>
       </c>
-      <c r="V6" s="31">
+      <c r="V6" s="29">
         <f>1.2810726*10^5</f>
         <v>128107.26</v>
       </c>
-      <c r="W6" s="30">
-        <v>0</v>
-      </c>
-      <c r="X6" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="30">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="33">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="33">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="33">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="33">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="33">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="30">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="30">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="30">
+      <c r="W6" s="28">
+        <v>0</v>
+      </c>
+      <c r="X6" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="28">
         <v>0</v>
       </c>
     </row>
@@ -3470,43 +3514,43 @@
       <c r="E7" s="16">
         <v>0</v>
       </c>
-      <c r="F7" s="30">
-        <v>0</v>
-      </c>
-      <c r="G7" s="30">
-        <v>0</v>
-      </c>
-      <c r="H7" s="30">
-        <v>0</v>
-      </c>
-      <c r="I7" s="30">
-        <v>0</v>
-      </c>
-      <c r="J7" s="30">
-        <v>0</v>
-      </c>
-      <c r="K7" s="30">
-        <v>0</v>
-      </c>
-      <c r="L7" s="30">
-        <v>0</v>
-      </c>
-      <c r="M7" s="30">
-        <v>0</v>
-      </c>
-      <c r="N7" s="30">
-        <v>0</v>
-      </c>
-      <c r="O7" s="30">
-        <v>0</v>
-      </c>
-      <c r="P7" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="30">
-        <v>0</v>
-      </c>
-      <c r="R7" s="30">
+      <c r="F7" s="28">
+        <v>0</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0</v>
+      </c>
+      <c r="H7" s="28">
+        <v>0</v>
+      </c>
+      <c r="I7" s="28">
+        <v>0</v>
+      </c>
+      <c r="J7" s="28">
+        <v>0</v>
+      </c>
+      <c r="K7" s="28">
+        <v>0</v>
+      </c>
+      <c r="L7" s="28">
+        <v>0</v>
+      </c>
+      <c r="M7" s="28">
+        <v>0</v>
+      </c>
+      <c r="N7" s="28">
+        <v>0</v>
+      </c>
+      <c r="O7" s="28">
+        <v>0</v>
+      </c>
+      <c r="P7" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="28">
+        <v>0</v>
+      </c>
+      <c r="R7" s="28">
         <v>0</v>
       </c>
       <c r="S7" s="16">
@@ -3521,49 +3565,49 @@
       <c r="V7" s="16">
         <v>5192.3455999999996</v>
       </c>
-      <c r="W7" s="30">
-        <v>0</v>
-      </c>
-      <c r="X7" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="30">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="33">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="33">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="33">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="33">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="33">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="30">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="30">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="30">
+      <c r="W7" s="28">
+        <v>0</v>
+      </c>
+      <c r="X7" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="28">
         <v>0</v>
       </c>
     </row>
@@ -6641,12 +6685,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="S1:AK1"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:V2"/>
@@ -6660,6 +6698,12 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="S1:AK1"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6691,16 +6735,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6731,11 +6775,11 @@
       <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -6807,19 +6851,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -6844,16 +6888,16 @@
       <c r="E6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="F6" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="111"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="110" t="s">
+      <c r="G6" s="112"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="111"/>
-      <c r="K6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="113"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
@@ -6889,22 +6933,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -6929,21 +6973,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="108" t="s">
+      <c r="F9" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="109" t="s">
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109" t="s">
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -7025,19 +7069,19 @@
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -7062,16 +7106,16 @@
       <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="108" t="s">
+      <c r="F13" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="109" t="s">
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -7149,19 +7193,19 @@
       <c r="X16" s="10"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="107" t="s">
+      <c r="A17" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
@@ -7186,16 +7230,16 @@
       <c r="E18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="108" t="s">
+      <c r="F18" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="109" t="s">
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
     </row>
     <row r="19" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
@@ -7232,19 +7276,19 @@
       <c r="X20" s="10"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="107" t="s">
+      <c r="A21" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
@@ -7269,16 +7313,16 @@
       <c r="E22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="108" t="s">
+      <c r="F22" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109" t="s">
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
     </row>
     <row r="23" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
@@ -7317,114 +7361,114 @@
     </row>
     <row r="24" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="107" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="107"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
+      <c r="A25" s="106" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
     </row>
     <row r="26" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="108" t="s">
+      <c r="F26" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="109" t="s">
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109" t="s">
-        <v>136</v>
-      </c>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105" t="s">
+        <v>130</v>
+      </c>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
     </row>
     <row r="27" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="107" t="s">
-        <v>137</v>
-      </c>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="107"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
+      <c r="A29" s="106" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="106"/>
+      <c r="N29" s="106"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="106"/>
     </row>
     <row r="30" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="110" t="s">
+      <c r="F30" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="111"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="110" t="s">
+      <c r="G30" s="112"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="111"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="109" t="s">
-        <v>138</v>
-      </c>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="P30" s="109"/>
-      <c r="Q30" s="109"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="M30" s="105"/>
+      <c r="N30" s="105"/>
+      <c r="O30" s="105" t="s">
+        <v>133</v>
+      </c>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="105"/>
     </row>
     <row r="31" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
@@ -7447,14 +7491,14 @@
     </row>
     <row r="32" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="107" t="s">
+      <c r="A33" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -7528,12 +7572,12 @@
       <c r="X36" s="10"/>
     </row>
     <row r="37" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="107" t="s">
+      <c r="A37" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="107"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -7605,15 +7649,15 @@
       <c r="K40" s="11"/>
     </row>
     <row r="41" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="113" t="s">
+      <c r="A41" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="114"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="115"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="110"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
       <c r="J41" s="10"/>
@@ -7622,7 +7666,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>6</v>
@@ -7633,11 +7677,11 @@
       <c r="D42" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="109" t="s">
+      <c r="E42" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="10"/>
@@ -7761,6 +7805,21 @@
     <row r="64" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
     <mergeCell ref="E42:G42"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="F22:H22"/>
@@ -7777,21 +7836,6 @@
     <mergeCell ref="I30:K30"/>
     <mergeCell ref="L30:N30"/>
     <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -7810,10 +7854,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4658AC4-6667-4045-B0FE-42E281567C35}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7824,51 +7868,58 @@
     <col min="6" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="40.140625" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116" t="s">
+        <v>243</v>
+      </c>
+      <c r="K1" s="116"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="116" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="117"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="J2" s="61" t="s">
+        <v>245</v>
+      </c>
+      <c r="K2" s="61" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -7877,21 +7928,22 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="26"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I4" s="26"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I4" s="25"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{C29CF91F-D32A-47CE-8C1A-1D1B33C14C9E}">
@@ -7905,10 +7957,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F55610B-D925-4735-AE3D-EBBD0AD81ACC}">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7917,123 +7969,131 @@
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" customWidth="1"/>
-    <col min="15" max="15" width="17" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" customWidth="1"/>
-    <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" customWidth="1"/>
+    <col min="20" max="20" width="17" customWidth="1"/>
+    <col min="21" max="22" width="15" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-    </row>
-    <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="125" t="s">
-        <v>124</v>
-      </c>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="127"/>
-      <c r="U2" s="128" t="s">
-        <v>132</v>
-      </c>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-    </row>
-    <row r="3" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+    <row r="1" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+    </row>
+    <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="117" t="s">
+        <v>247</v>
+      </c>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="119"/>
+      <c r="AB2" s="125" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC2" s="126"/>
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="127"/>
+    </row>
+    <row r="3" spans="1:33" s="32" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="129" t="s">
+      <c r="F3" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="130"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="121" t="s">
+      <c r="G3" s="122"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="40" t="s">
+      <c r="J3" s="129"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="131" t="s">
+        <v>248</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="O3" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="P3" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="Q3" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="R3" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="P3" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q3" s="132" t="s">
-        <v>131</v>
-      </c>
-      <c r="R3" s="132"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128"/>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="128"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S3" s="124"/>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="133"/>
+      <c r="AD3" s="133"/>
+      <c r="AE3" s="133"/>
+      <c r="AF3" s="133"/>
+      <c r="AG3" s="134"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
@@ -8044,146 +8104,165 @@
       <c r="I4" s="44"/>
       <c r="J4" s="44"/>
       <c r="K4" s="44"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="18"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="36"/>
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="128"/>
-      <c r="Z4" s="128"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="L5" s="18"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="128"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U6" s="128"/>
-      <c r="V6" s="128"/>
-      <c r="W6" s="128"/>
-      <c r="X6" s="128"/>
-      <c r="Y6" s="128"/>
-      <c r="Z6" s="128"/>
-    </row>
-    <row r="7" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="123" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="124"/>
-      <c r="U7" s="128"/>
-      <c r="V7" s="128"/>
-      <c r="W7" s="128"/>
-      <c r="X7" s="128"/>
-      <c r="Y7" s="128"/>
-      <c r="Z7" s="128"/>
-    </row>
-    <row r="8" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="133" t="s">
-        <v>128</v>
-      </c>
-      <c r="N8" s="134"/>
-      <c r="O8" s="134"/>
-      <c r="P8" s="134"/>
-      <c r="Q8" s="134"/>
-      <c r="R8" s="135"/>
-      <c r="U8" s="128"/>
-      <c r="V8" s="128"/>
-      <c r="W8" s="128"/>
-      <c r="X8" s="128"/>
-      <c r="Y8" s="128"/>
-      <c r="Z8" s="128"/>
-    </row>
-    <row r="9" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="R4" s="18"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="133"/>
+      <c r="AD4" s="133"/>
+      <c r="AE4" s="133"/>
+      <c r="AF4" s="133"/>
+      <c r="AG4" s="134"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="AB5" s="132"/>
+      <c r="AC5" s="133"/>
+      <c r="AD5" s="133"/>
+      <c r="AE5" s="133"/>
+      <c r="AF5" s="133"/>
+      <c r="AG5" s="134"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AB6" s="132"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133"/>
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="134"/>
+    </row>
+    <row r="7" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="AB7" s="132"/>
+      <c r="AC7" s="133"/>
+      <c r="AD7" s="133"/>
+      <c r="AE7" s="133"/>
+      <c r="AF7" s="133"/>
+      <c r="AG7" s="134"/>
+    </row>
+    <row r="8" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="106"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="136" t="s">
+        <v>249</v>
+      </c>
+      <c r="O8" s="136"/>
+      <c r="P8" s="136"/>
+      <c r="Q8" s="136"/>
+      <c r="R8" s="136"/>
+      <c r="AB8" s="132"/>
+      <c r="AC8" s="133"/>
+      <c r="AD8" s="133"/>
+      <c r="AE8" s="133"/>
+      <c r="AF8" s="133"/>
+      <c r="AG8" s="134"/>
+    </row>
+    <row r="9" spans="1:33" s="32" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="129" t="s">
+      <c r="F9" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="130"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="121" t="s">
+      <c r="G9" s="122"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="40" t="s">
+      <c r="J9" s="129"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="M9" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="N9" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="O9" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="P9" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="M9" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="N9" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="O9" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="P9" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q9" s="129" t="s">
-        <v>130</v>
-      </c>
-      <c r="R9" s="131"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="128"/>
-      <c r="W9" s="128"/>
-      <c r="X9" s="128"/>
-      <c r="Y9" s="128"/>
-      <c r="Z9" s="128"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="Q9" s="121" t="s">
+        <v>124</v>
+      </c>
+      <c r="R9" s="123"/>
+      <c r="AB9" s="132"/>
+      <c r="AC9" s="133"/>
+      <c r="AD9" s="133"/>
+      <c r="AE9" s="133"/>
+      <c r="AF9" s="133"/>
+      <c r="AG9" s="134"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
@@ -8194,262 +8273,371 @@
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="26"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="128"/>
-      <c r="Z10" s="128"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="U11" s="128"/>
-      <c r="V11" s="128"/>
-      <c r="W11" s="128"/>
-      <c r="X11" s="128"/>
-      <c r="Y11" s="128"/>
-      <c r="Z11" s="128"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U12" s="128"/>
-      <c r="V12" s="128"/>
-      <c r="W12" s="128"/>
-      <c r="X12" s="128"/>
-      <c r="Y12" s="128"/>
-      <c r="Z12" s="128"/>
-    </row>
-    <row r="13" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="113" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="U13" s="128"/>
-      <c r="V13" s="128"/>
-      <c r="W13" s="128"/>
-      <c r="X13" s="128"/>
-      <c r="Y13" s="128"/>
-      <c r="Z13" s="128"/>
-    </row>
-    <row r="14" spans="1:26" s="35" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="L10" s="137"/>
+      <c r="M10" s="25"/>
+      <c r="AB10" s="132"/>
+      <c r="AC10" s="133"/>
+      <c r="AD10" s="133"/>
+      <c r="AE10" s="133"/>
+      <c r="AF10" s="133"/>
+      <c r="AG10" s="134"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="137"/>
+      <c r="AB11" s="132"/>
+      <c r="AC11" s="133"/>
+      <c r="AD11" s="133"/>
+      <c r="AE11" s="133"/>
+      <c r="AF11" s="133"/>
+      <c r="AG11" s="134"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Q12" s="44"/>
+      <c r="AB12" s="132"/>
+      <c r="AC12" s="133"/>
+      <c r="AD12" s="133"/>
+      <c r="AE12" s="133"/>
+      <c r="AF12" s="133"/>
+      <c r="AG12" s="134"/>
+    </row>
+    <row r="13" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="116"/>
+      <c r="R13" s="116"/>
+      <c r="S13" s="116"/>
+      <c r="T13" s="116"/>
+      <c r="U13" s="116"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="116"/>
+      <c r="Y13" s="116"/>
+      <c r="AB13" s="138"/>
+      <c r="AC13" s="139"/>
+      <c r="AD13" s="139"/>
+      <c r="AE13" s="139"/>
+      <c r="AF13" s="139"/>
+      <c r="AG13" s="140"/>
+    </row>
+    <row r="14" spans="1:33" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="108"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="109"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="117" t="s">
+        <v>250</v>
+      </c>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="118"/>
+      <c r="X14" s="118"/>
+      <c r="Y14" s="119"/>
+      <c r="Z14" s="141"/>
+      <c r="AA14" s="141"/>
+    </row>
+    <row r="15" spans="1:33" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B15" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C15" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D15" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E15" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="121" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" s="122" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="122"/>
-      <c r="L14" s="122"/>
-      <c r="M14" s="122" t="s">
-        <v>84</v>
-      </c>
-      <c r="N14" s="122"/>
-      <c r="O14" s="122"/>
-      <c r="P14" s="36" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-    </row>
-    <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="113" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="F15" s="114" t="s">
+        <v>251</v>
+      </c>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="128" t="s">
+        <v>252</v>
+      </c>
+      <c r="J15" s="129"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="142" t="s">
+        <v>253</v>
+      </c>
+      <c r="M15" s="143"/>
+      <c r="N15" s="144"/>
+      <c r="O15" s="142" t="s">
+        <v>254</v>
+      </c>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="144"/>
+      <c r="R15" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="S15" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="T15" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="U15" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="V15" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="W15" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="X15" s="121" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y15" s="123"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+    </row>
+    <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="115" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="116"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="116"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="116"/>
+      <c r="O18" s="116"/>
+      <c r="P18" s="116"/>
+      <c r="Q18" s="116"/>
+    </row>
+    <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="145"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="146"/>
+      <c r="L19" s="117" t="s">
+        <v>247</v>
+      </c>
+      <c r="M19" s="118"/>
+      <c r="N19" s="118"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="119"/>
+    </row>
+    <row r="20" spans="1:20" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B20" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C20" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D20" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E20" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="67" t="s">
+      <c r="F20" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67" t="s">
-        <v>169</v>
-      </c>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="33" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="142" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" s="143"/>
+      <c r="K20" s="144"/>
+      <c r="L20" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="M20" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="N20" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="O20" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="P20" s="121" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q20" s="123"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="U2:Z13"/>
+  <mergeCells count="26">
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="AB2:AG13"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="A13:Y13"/>
+    <mergeCell ref="A14:S14"/>
+    <mergeCell ref="A18:Q18"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:K3"/>
-    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="A7:R7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="M8:R8"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="A13:P13"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8472,490 +8660,490 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
-        <v>245</v>
-      </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="F1" s="70" t="s">
+      <c r="A1" s="106" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="F1" s="93" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="95"/>
+      <c r="I1" s="93" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="95"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="120" t="s">
+        <v>241</v>
+      </c>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="F3" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="I1" s="70" t="s">
-        <v>249</v>
-      </c>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="72"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="63" t="s">
+      <c r="G3" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="F4" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="F5" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="I2" s="128" t="s">
-        <v>248</v>
-      </c>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="F3" s="63" t="s">
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="F6" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="F8" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="F4" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="G4" s="64" t="s">
+      <c r="G8" s="58" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="F5" s="63" t="s">
-        <v>178</v>
-      </c>
-      <c r="G5" s="64" t="s">
-        <v>179</v>
-      </c>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="F6" s="63" t="s">
+      <c r="G9" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="F10" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="G6" s="64" t="s">
-        <v>180</v>
-      </c>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="63" t="s">
+      <c r="G10" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="G7" s="64" t="s">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="F11" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="F12" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="F13" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="F14" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="F8" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="G8" s="64" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="63" t="s">
-        <v>183</v>
-      </c>
-      <c r="G9" s="64" t="s">
-        <v>187</v>
-      </c>
-      <c r="H9" s="39"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="F10" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="G10" s="64" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="F11" s="63" t="s">
+      <c r="G14" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="G11" s="64" t="s">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="F15" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="F16" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="F17" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="F18" s="57" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="F12" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="G12" s="64" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="F13" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="G13" s="64" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="F14" s="63" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14" s="64" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="F15" s="63" t="s">
+      <c r="G18" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="G15" s="64" t="s">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="F19" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="F20" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="F21" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="F22" s="57" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="F16" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" s="64" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="F17" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="G17" s="64" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="F18" s="63" t="s">
-        <v>200</v>
-      </c>
-      <c r="G18" s="64" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="F19" s="63" t="s">
+      <c r="G22" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="G19" s="64" t="s">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="F23" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" s="59" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="F24" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" s="59" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="F25" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" s="59" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="F20" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="G20" s="64" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="F26" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" s="59" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="F21" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="G21" s="64" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="F22" s="63" t="s">
-        <v>208</v>
-      </c>
-      <c r="G22" s="65" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="F23" s="32" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="F27" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27" s="59" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="F28" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="G23" s="65" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="F24" s="32" t="s">
+      <c r="G28" s="59" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="F29" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="G29" s="59" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="F30" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="G30" s="59" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="F31" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="G24" s="65" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="F25" s="32" t="s">
+      <c r="G31" s="59" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="F32" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="G25" s="65" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="F26" s="32" t="s">
+      <c r="G32" s="59" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="F33" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="G26" s="65" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="63"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="F27" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="G27" s="65" t="s">
+      <c r="G33" s="59" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="F34" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="G34" s="59" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="63"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="F28" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="G28" s="65" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="F35" s="30" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="63"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="F29" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="G29" s="65" t="s">
+      <c r="G35" s="59" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="F36" s="30" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="63"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="F30" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="G30" s="65" t="s">
+      <c r="G36" s="59" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="F37" s="30" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="63"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="F31" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="G31" s="65" t="s">
+      <c r="G37" s="59" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="F38" s="30" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="63"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="F32" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="G32" s="65" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="F33" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="G33" s="65" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="F34" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="G34" s="65" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="63"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="F35" s="32" t="s">
+      <c r="G38" s="59" t="s">
         <v>237</v>
       </c>
-      <c r="G35" s="65" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="63"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="F36" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="G36" s="65" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
-      <c r="F37" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="G37" s="65" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
-      <c r="F38" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="G38" s="65" t="s">
-        <v>244</v>
-      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="63"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="63"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="63"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="63"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="4">
